--- a/ClanCompetitionStatistics/2025/4月/比赛1/2025-04-03.xlsx
+++ b/ClanCompetitionStatistics/2025/4月/比赛1/2025-04-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vue\template\ClanWarStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A8940-BDA9-4DBB-B4A3-CDCB1D17F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004899D5-B01F-448B-B66C-FFB39EA5A63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="300" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="我方队员进攻" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +46,9 @@
     <t>评价</t>
   </si>
   <si>
+    <t>(player)</t>
+  </si>
+  <si>
     <t>新成员</t>
   </si>
   <si>
@@ -55,126 +58,132 @@
     <t>1. 终究是梦 94% ★★☆</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>天赋</t>
   </si>
   <si>
     <t>长老</t>
   </si>
   <si>
+    <t>2. 池水 81% ★★☆</t>
+  </si>
+  <si>
+    <t>云雀1</t>
+  </si>
+  <si>
+    <t>3. 悠悠我心 100% ★★★</t>
+  </si>
+  <si>
+    <t>沐、澈</t>
+  </si>
+  <si>
+    <t>4. 佐助 100% ★★★</t>
+  </si>
+  <si>
+    <t>缍飒</t>
+  </si>
+  <si>
+    <t>5. 她与星光皆失 100% ★★★</t>
+  </si>
+  <si>
+    <t>不悔谷</t>
+  </si>
+  <si>
+    <t>6. 呦呦鹿鸣 100% ★★★</t>
+  </si>
+  <si>
+    <t>其實很簡單</t>
+  </si>
+  <si>
+    <t>7. 明明如月 100% ★★★</t>
+  </si>
+  <si>
+    <t>关山</t>
+  </si>
+  <si>
+    <t>8. 星失 100% ★★★</t>
+  </si>
+  <si>
+    <t>閃耀、天使</t>
+  </si>
+  <si>
+    <t>9. 〈浅安 ^ 100% ★★★</t>
+  </si>
+  <si>
+    <t>留白</t>
+  </si>
+  <si>
+    <t>10. 蓝鸭 79% ★★☆</t>
+  </si>
+  <si>
+    <t>石村</t>
+  </si>
+  <si>
+    <t>11. 天添 100% ★★★</t>
+  </si>
+  <si>
+    <t>剑中之贼。</t>
+  </si>
+  <si>
+    <t>12. 千城 @暮雪 100% ★★★</t>
+  </si>
+  <si>
+    <t>wiusyx</t>
+  </si>
+  <si>
+    <t>13. 夏末凉城空余心 100% ★★★</t>
+  </si>
+  <si>
+    <t>顺其自然</t>
+  </si>
+  <si>
+    <t>副首领</t>
+  </si>
+  <si>
+    <t>14. 归寻 100% ★★★</t>
+  </si>
+  <si>
+    <t>靓譚</t>
+  </si>
+  <si>
+    <t>15. 安逸的小村庄 100% ★★★</t>
+  </si>
+  <si>
+    <t>剑神重生</t>
+  </si>
+  <si>
+    <t>16. 心亡泪冷☆ 96% ★☆☆</t>
+  </si>
+  <si>
+    <t>玩的太拉跨了 王全放养了</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>17. VSagittae 100% ★★★</t>
+  </si>
+  <si>
+    <t>爱总是身不由己</t>
+  </si>
+  <si>
+    <t>18. 乱世风华 2 100% ★★★</t>
+  </si>
+  <si>
+    <t>煞￡长灬丿啸</t>
+  </si>
+  <si>
+    <t>19. kepler-186f 100% ★★★</t>
+  </si>
+  <si>
+    <t>Sg-Group❄吴彦祖</t>
+  </si>
+  <si>
+    <t>20. 鸽子神 100% ★★★</t>
+  </si>
+  <si>
     <t>云雀</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>沐、澈</t>
-  </si>
-  <si>
-    <t>缍飒</t>
-  </si>
-  <si>
-    <t>5. 她与星光皆失 100% ★★★</t>
-  </si>
-  <si>
-    <t>不悔谷</t>
-  </si>
-  <si>
-    <t>6. 呦呦鹿鸣 100% ★★★</t>
-  </si>
-  <si>
-    <t>其實很簡單</t>
-  </si>
-  <si>
-    <t>7. 明明如月 100% ★★★</t>
-  </si>
-  <si>
-    <t>关山</t>
-  </si>
-  <si>
-    <t>8. 星失 100% ★★★</t>
-  </si>
-  <si>
-    <t>閃耀、天使</t>
-  </si>
-  <si>
-    <t>9. 〈浅安 ^ 100% ★★★</t>
-  </si>
-  <si>
-    <t>留白</t>
-  </si>
-  <si>
-    <t>10. 蓝鸭 79% ★★☆</t>
-  </si>
-  <si>
-    <t>石村</t>
-  </si>
-  <si>
-    <t>11. 天添 100% ★★★</t>
-  </si>
-  <si>
-    <t>剑中之贼。</t>
-  </si>
-  <si>
-    <t>12. 千城 @暮雪 100% ★★★</t>
-  </si>
-  <si>
-    <t>wiusyx</t>
-  </si>
-  <si>
-    <t>13. 夏末凉城空余心 100% ★★★</t>
-  </si>
-  <si>
-    <t>順其自然</t>
-  </si>
-  <si>
-    <t>副首领</t>
-  </si>
-  <si>
-    <t>14. 归寻 100% ★★★</t>
-  </si>
-  <si>
-    <t>觀譚</t>
-  </si>
-  <si>
-    <t>15. 安逸的小村庄 100% ★★★</t>
-  </si>
-  <si>
-    <t>剑神重生</t>
-  </si>
-  <si>
-    <t>16. 心亡泪冷☆ 96% ★☆☆</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>17. VSagittae 100% ★★★</t>
-  </si>
-  <si>
-    <t>爱总是身不由己</t>
-  </si>
-  <si>
-    <t>18. 乱世风华 2 100% ★★★</t>
-  </si>
-  <si>
-    <t>煞￡长灬丿啸</t>
-  </si>
-  <si>
-    <t>19. kepler-186f 100% ★★★</t>
-  </si>
-  <si>
-    <t>Sg-Group 吴彦祖</t>
-  </si>
-  <si>
-    <t>20. 鸽子神 100% ★★★</t>
-  </si>
-  <si>
     <t>21. 好烦✓ 100% ★★★</t>
   </si>
   <si>
@@ -202,7 +211,7 @@
     <t>25. 一场空 100% ★★★</t>
   </si>
   <si>
-    <t>清风 / 于世’</t>
+    <t>清风/于世’</t>
   </si>
   <si>
     <t>26. 芝士雪豹 100% ★★★</t>
@@ -230,30 +239,6 @@
   </si>
   <si>
     <t>30. 好尴尬 100% ★★★</t>
-  </si>
-  <si>
-    <t>玩的太拉跨了 王全放养了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 佐助 100% ★★★</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 池水 81% ★★☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 悠悠我心 100% ★★★</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云雀1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -645,14 +630,14 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,22 +668,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>256</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -716,13 +701,13 @@
         <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -731,18 +716,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -751,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -760,13 +745,13 @@
         <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -775,20 +760,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -797,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -806,13 +791,13 @@
         <v>222</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -821,20 +806,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -843,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -852,13 +837,13 @@
         <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -867,22 +852,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>227</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -891,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -900,13 +885,13 @@
         <v>208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -915,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -924,13 +909,13 @@
         <v>182</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -939,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -963,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -972,13 +957,13 @@
         <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -987,22 +972,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
         <v>241</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1011,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1020,13 +1005,13 @@
         <v>207</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1035,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1044,16 +1029,16 @@
         <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -1070,13 +1055,13 @@
         <v>208</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1085,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1094,13 +1079,13 @@
         <v>183</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1109,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -1118,13 +1103,13 @@
         <v>206</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1133,22 +1118,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2">
         <v>254</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1157,18 +1142,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1177,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
@@ -1186,13 +1171,13 @@
         <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1201,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
@@ -1210,13 +1195,13 @@
         <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1225,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
@@ -1234,13 +1219,13 @@
         <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1249,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -1258,13 +1243,13 @@
         <v>192</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1273,20 +1258,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1295,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
@@ -1304,13 +1289,13 @@
         <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1319,22 +1304,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2">
         <v>220</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1343,7 +1328,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -1352,13 +1337,13 @@
         <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1367,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -1376,19 +1361,18 @@
         <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
       </c>
       <c r="H31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>